--- a/BigData.xlsx
+++ b/BigData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bda-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738FD0C6-0BF4-4D2D-B701-BEEE5FD8F683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65397AE-2775-4755-8F2A-D4226243A414}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>데이터 변환</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,33 @@
     <t>Transform: 데이터 변환
 PolynomialFeatures
 FunctionTransformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from sklearn.preprocessing import LabelEncoder
+le = LabelEncoder()
+all_train['주구매지점'] = le.fit_transform(all_train['주구매지점'])
+all_train['주구매지점']
+ohe = OneHotEncoder()
+rst = ohe.fit_transform(test)
+print(type(rst))
+print(rst.toarray())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 나누기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from sklearn.model_selection import train_test_split
+X_train, X_test, y_train, y_test = train_test_split(x_data, y_data, test_size=0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_train = x_data[:3200]
+y_train = y_data[:3200]
+x_test = x_data[3200:]
+y_test = y_data[3200:]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +466,7 @@
   <dimension ref="A3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -491,7 +518,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -499,24 +526,186 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DEBD0A-26BA-4DC8-A5EC-746E1924DF8B}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B2" sqref="B2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="62.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigData.xlsx
+++ b/BigData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bda-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65397AE-2775-4755-8F2A-D4226243A414}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823635C6-1905-4869-8100-F4B2706816C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터수집" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>데이터 변환</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,29 @@
 y_train = y_data[:3200]
 x_test = x_data[3200:]
 y_test = y_data[3200:]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyperparameter를 튜닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomSearch, GridSearch, HyperOpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visualizations¶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from sklearn.model_selection import train_test_split
+from sklearn.svm import SVC
+from sklearn.metrics import plot_roc_curve
+from sklearn.datasets import load_wine
+X_train, X_test, y_train, y_test = train_test_split(X, y, random_state=42)
+svc = SVC(random_state=42)
+svc.fit(X_train, y_train)
+svc_disp = plot_roc_curve(svc, X_test, y_test)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,11 +186,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F994006-2AC2-4EBB-BD2C-A0C000839710}">
   <dimension ref="A3:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -542,7 +571,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -573,8 +602,12 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -713,14 +746,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44667B1-CA83-445F-B8F4-1E30A786C251}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="174" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BigData.xlsx
+++ b/BigData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bda-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823635C6-1905-4869-8100-F4B2706816C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3055850-4BCD-4094-86D7-AC80BAEE81C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <dimension ref="B3:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/BigData.xlsx
+++ b/BigData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bda-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3055850-4BCD-4094-86D7-AC80BAEE81C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91791310-F5BC-44BA-9B62-478B0350D10D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터수집" sheetId="1" r:id="rId1"/>
@@ -81,17 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>from sklearn.preprocessing import LabelEncoder
-le = LabelEncoder()
-all_train['주구매지점'] = le.fit_transform(all_train['주구매지점'])
-all_train['주구매지점']
-ohe = OneHotEncoder()
-rst = ohe.fit_transform(test)
-print(type(rst))
-print(rst.toarray())</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모델 나누기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +117,18 @@
 svc = SVC(random_state=42)
 svc.fit(X_train, y_train)
 svc_disp = plot_roc_curve(svc, X_test, y_test)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from sklearn.preprocessing import LabelEncoder
+le = LabelEncoder()
+all_train['주구매지점'] = le.fit_transform(all_train['주구매지점'])
+all_train['주구매지점']
+ltmp = ltmp.reshape(-1,1)
+ohe = OneHotEncoder()
+rst = ohe.fit_transform(test)
+print(type(rst))
+print(rst.toarray())</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F994006-2AC2-4EBB-BD2C-A0C000839710}">
   <dimension ref="A3:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -547,7 +548,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -556,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -583,11 +584,11 @@
   <sheetData>
     <row r="2" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -596,17 +597,17 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -748,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44667B1-CA83-445F-B8F4-1E30A786C251}">
   <dimension ref="B3:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -760,11 +761,11 @@
   <sheetData>
     <row r="3" spans="2:4" ht="174" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/BigData.xlsx
+++ b/BigData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bda-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91791310-F5BC-44BA-9B62-478B0350D10D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6273AB4-D145-4921-8942-84E29913B1D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,12 @@
 ohe = OneHotEncoder()
 rst = ohe.fit_transform(test)
 print(type(rst))
-print(rst.toarray())</t>
+print(rst.toarray())
+--&gt; sample5 에서 
+df_dum = pd.get_dummies(X_train['주구매상품'])
+df_dum["cust_id"] = np.arange(0,3500,1)
+df_dum
+X_train = pd.merge(X_train, df_dum)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +553,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="261" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>

--- a/BigData.xlsx
+++ b/BigData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bda-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6273AB4-D145-4921-8942-84E29913B1D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A6BBC-EBBC-47FB-912C-7DDFFB85CD26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 print(type(rst))
 print(rst.toarray())
 --&gt; sample5 에서 
-df_dum = pd.get_dummies(X_train['주구매상품'])
+df_dum = pd.get_dummies(X_train['주구매상품'], dummy_na=True)
 df_dum["cust_id"] = np.arange(0,3500,1)
 df_dum
 X_train = pd.merge(X_train, df_dum)</t>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F994006-2AC2-4EBB-BD2C-A0C000839710}">
   <dimension ref="A3:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -510,7 +510,7 @@
     <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.19921875" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
-    <col min="6" max="6" width="54.796875" customWidth="1"/>
+    <col min="6" max="6" width="63.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="121.8" x14ac:dyDescent="0.4">
@@ -553,7 +553,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="261" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
